--- a/Design Input Files/Design Input File_Student_Blank_V25-01.xlsx
+++ b/Design Input Files/Design Input File_Student_Blank_V25-01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Reference" sheetId="1" state="visible" r:id="rId3"/>
@@ -2682,8 +2682,8 @@
   </sheetPr>
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3849,8 +3849,8 @@
   </sheetPr>
   <dimension ref="A1:AR20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4284,7 +4284,98 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L2:L50 T2:T50 AB2:AB50 AJ2:AJ50 AR2:AR50" type="list">
@@ -4308,10 +4399,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD20"/>
+  <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21130,6 +21221,7 @@
       <c r="XFD3" s="0"/>
     </row>
     <row r="20" s="19" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -21148,7 +21240,7 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
